--- a/natmiOut/OldD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C1qa-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>C1qa</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H2">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I2">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J2">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>19093.41643407005</v>
+        <v>25604.72139401549</v>
       </c>
       <c r="R2">
-        <v>19093.41643407005</v>
+        <v>153628.3283640929</v>
       </c>
       <c r="S2">
-        <v>0.1329105524736011</v>
+        <v>0.1535762586652476</v>
       </c>
       <c r="T2">
-        <v>0.1329105524736011</v>
+        <v>0.1190863527659288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H3">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I3">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J3">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>7708.918032890523</v>
+        <v>6.681359638464001</v>
       </c>
       <c r="R3">
-        <v>7708.918032890523</v>
+        <v>60.13223674617601</v>
       </c>
       <c r="S3">
-        <v>0.05366229549662512</v>
+        <v>4.00745706341534E-05</v>
       </c>
       <c r="T3">
-        <v>0.05366229549662512</v>
+        <v>4.66120333014908E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H4">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I4">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J4">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>5423.809200536053</v>
+        <v>10576.77923212386</v>
       </c>
       <c r="R4">
-        <v>5423.809200536053</v>
+        <v>95191.0130891147</v>
       </c>
       <c r="S4">
-        <v>0.03775549964271013</v>
+        <v>0.06343916648034781</v>
       </c>
       <c r="T4">
-        <v>0.03775549964271013</v>
+        <v>0.07378815278137191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H5">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I5">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J5">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>12544.43889261774</v>
+        <v>7505.17780917608</v>
       </c>
       <c r="R5">
-        <v>12544.43889261774</v>
+        <v>67546.60028258472</v>
       </c>
       <c r="S5">
-        <v>0.08732268053998259</v>
+        <v>0.04501580434380744</v>
       </c>
       <c r="T5">
-        <v>0.08732268053998259</v>
+        <v>0.05235934254473826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.4084002248793</v>
+        <v>108.909168</v>
       </c>
       <c r="H6">
-        <v>81.4084002248793</v>
+        <v>326.727504</v>
       </c>
       <c r="I6">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J6">
-        <v>0.3124988113761418</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>121.789262218493</v>
+        <v>17386.59963024555</v>
       </c>
       <c r="R6">
-        <v>121.789262218493</v>
+        <v>156479.39667221</v>
       </c>
       <c r="S6">
-        <v>0.000847783223222857</v>
+        <v>0.1042842404349605</v>
       </c>
       <c r="T6">
-        <v>0.000847783223222857</v>
+        <v>0.1212963834934359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>179.099471361523</v>
+        <v>108.909168</v>
       </c>
       <c r="H7">
-        <v>179.099471361523</v>
+        <v>326.727504</v>
       </c>
       <c r="I7">
-        <v>0.6875011886238582</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="J7">
-        <v>0.6875011886238582</v>
+        <v>0.367340942703246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>42005.74855151481</v>
+        <v>164.288717563824</v>
       </c>
       <c r="R7">
-        <v>42005.74855151481</v>
+        <v>985.7323053829441</v>
       </c>
       <c r="S7">
-        <v>0.2924048331699693</v>
+        <v>0.000985398208248451</v>
       </c>
       <c r="T7">
-        <v>0.2924048331699693</v>
+        <v>0.0007640990844696459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H8">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I8">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J8">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>16959.71350187592</v>
+        <v>43818.46637660825</v>
       </c>
       <c r="R8">
-        <v>16959.71350187592</v>
+        <v>262910.7982596495</v>
       </c>
       <c r="S8">
-        <v>0.1180577032461351</v>
+        <v>0.2628216891335245</v>
       </c>
       <c r="T8">
-        <v>0.1180577032461351</v>
+        <v>0.2037976224887333</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H9">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I9">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J9">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>11932.44625736916</v>
+        <v>11.43409952261733</v>
       </c>
       <c r="R9">
-        <v>11932.44625736916</v>
+        <v>102.906895703556</v>
       </c>
       <c r="S9">
-        <v>0.08306255875708778</v>
+        <v>6.858134477886133E-05</v>
       </c>
       <c r="T9">
-        <v>0.08306255875708778</v>
+        <v>7.976918719545602E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>179.099471361523</v>
+        <v>186.3809663333333</v>
       </c>
       <c r="H10">
-        <v>179.099471361523</v>
+        <v>559.1428989999999</v>
       </c>
       <c r="I10">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957765</v>
       </c>
       <c r="J10">
-        <v>0.6875011886238582</v>
+        <v>0.6286464319957766</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>27597.91824908198</v>
+        <v>18100.49943616845</v>
       </c>
       <c r="R10">
-        <v>27597.91824908198</v>
+        <v>162904.4949255161</v>
       </c>
       <c r="S10">
-        <v>0.1921109600407361</v>
+        <v>0.1085661874855975</v>
       </c>
       <c r="T10">
-        <v>0.1921109600407361</v>
+        <v>0.1262768550333957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,557 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>186.3809663333333</v>
+      </c>
+      <c r="H11">
+        <v>559.1428989999999</v>
+      </c>
+      <c r="I11">
+        <v>0.6286464319957765</v>
+      </c>
+      <c r="J11">
+        <v>0.6286464319957766</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N11">
+        <v>206.736805</v>
+      </c>
+      <c r="O11">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P11">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q11">
+        <v>12843.93516418863</v>
+      </c>
+      <c r="R11">
+        <v>115595.4164776977</v>
+      </c>
+      <c r="S11">
+        <v>0.07703749158997426</v>
+      </c>
+      <c r="T11">
+        <v>0.08960480590638917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>186.3809663333333</v>
+      </c>
+      <c r="H12">
+        <v>559.1428989999999</v>
+      </c>
+      <c r="I12">
+        <v>0.6286464319957765</v>
+      </c>
+      <c r="J12">
+        <v>0.6286464319957766</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N12">
+        <v>478.929367</v>
+      </c>
+      <c r="O12">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P12">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q12">
+        <v>29754.43940895721</v>
+      </c>
+      <c r="R12">
+        <v>267789.9546806149</v>
+      </c>
+      <c r="S12">
+        <v>0.1784661278984852</v>
+      </c>
+      <c r="T12">
+        <v>0.2075797435918816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>186.3809663333333</v>
+      </c>
+      <c r="H13">
+        <v>559.1428989999999</v>
+      </c>
+      <c r="I13">
+        <v>0.6286464319957765</v>
+      </c>
+      <c r="J13">
+        <v>0.6286464319957766</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.508493</v>
+      </c>
+      <c r="N13">
+        <v>3.016986</v>
+      </c>
+      <c r="O13">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P13">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q13">
+        <v>281.154383047069</v>
+      </c>
+      <c r="R13">
+        <v>1686.926298282414</v>
+      </c>
+      <c r="S13">
+        <v>0.00168635454341623</v>
+      </c>
+      <c r="T13">
+        <v>0.001307635788181468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.568987</v>
+      </c>
+      <c r="I14">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J14">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>235.101616</v>
+      </c>
+      <c r="N14">
+        <v>470.203232</v>
+      </c>
+      <c r="O14">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P14">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q14">
+        <v>279.6915370609973</v>
+      </c>
+      <c r="R14">
+        <v>1678.149222365984</v>
+      </c>
+      <c r="S14">
+        <v>0.001677580442339822</v>
+      </c>
+      <c r="T14">
+        <v>0.001300832160426304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>179.099471361523</v>
-      </c>
-      <c r="H11">
-        <v>179.099471361523</v>
-      </c>
-      <c r="I11">
-        <v>0.6875011886238582</v>
-      </c>
-      <c r="J11">
-        <v>0.6875011886238582</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.49602819711562</v>
-      </c>
-      <c r="N11">
-        <v>1.49602819711562</v>
-      </c>
-      <c r="O11">
-        <v>0.002712916633152936</v>
-      </c>
-      <c r="P11">
-        <v>0.002712916633152936</v>
-      </c>
-      <c r="Q11">
-        <v>267.9378592453398</v>
-      </c>
-      <c r="R11">
-        <v>267.9378592453398</v>
-      </c>
-      <c r="S11">
-        <v>0.001865133409930079</v>
-      </c>
-      <c r="T11">
-        <v>0.001865133409930079</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.568987</v>
+      </c>
+      <c r="I15">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J15">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.184044</v>
+      </c>
+      <c r="O15">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P15">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q15">
+        <v>0.07298340482533335</v>
+      </c>
+      <c r="R15">
+        <v>0.6568506434280001</v>
+      </c>
+      <c r="S15">
+        <v>4.377520100783289E-07</v>
+      </c>
+      <c r="T15">
+        <v>5.091635655398872E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.568987</v>
+      </c>
+      <c r="I16">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J16">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N16">
+        <v>291.346801</v>
+      </c>
+      <c r="O16">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P16">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q16">
+        <v>115.5347716956208</v>
+      </c>
+      <c r="R16">
+        <v>1039.812945260587</v>
+      </c>
+      <c r="S16">
+        <v>0.0006929736789443875</v>
+      </c>
+      <c r="T16">
+        <v>0.0008060201691215142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.568987</v>
+      </c>
+      <c r="I17">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J17">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N17">
+        <v>206.736805</v>
+      </c>
+      <c r="O17">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P17">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q17">
+        <v>81.9823299407261</v>
+      </c>
+      <c r="R17">
+        <v>737.8409694665351</v>
+      </c>
+      <c r="S17">
+        <v>0.0004917272605785655</v>
+      </c>
+      <c r="T17">
+        <v>0.0005719439305933601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.568987</v>
+      </c>
+      <c r="I18">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J18">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N18">
+        <v>478.929367</v>
+      </c>
+      <c r="O18">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P18">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q18">
+        <v>189.9214094156921</v>
+      </c>
+      <c r="R18">
+        <v>1709.292684741229</v>
+      </c>
+      <c r="S18">
+        <v>0.001139142232780159</v>
+      </c>
+      <c r="T18">
+        <v>0.001324973289775712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.189662333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.568987</v>
+      </c>
+      <c r="I19">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="J19">
+        <v>0.004012625300977507</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.508493</v>
+      </c>
+      <c r="N19">
+        <v>3.016986</v>
+      </c>
+      <c r="O19">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P19">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q19">
+        <v>1.794597302197</v>
+      </c>
+      <c r="R19">
+        <v>10.767583813182</v>
+      </c>
+      <c r="S19">
+        <v>1.07639343244945E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.346587495076839E-06</v>
       </c>
     </row>
   </sheetData>
